--- a/pred_ohlcv/54_21/2020-01-14 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 GNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-91219.80619999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-91236.0462</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-101621.5406</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-107679.1302</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-107679.1302</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-107679.1302</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-92354.92360000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-29175.65120000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-28185.65120000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-28201.98120000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-28201.98120000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-26790.74320000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-26875.03320000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-312321.4229</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-310159.7745</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-309422.7139</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-310633.09</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-309453.5333</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-309453.5333</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-326740.4962999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-320740.4962999999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-320944.286</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-319114.6169</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-321963.7294</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-317812.1985999999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-295712.1985999999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-285521.1984999999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-271521.1984999999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-276021.1984999999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-273121.1984999999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-274309.9533999999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-267309.9533999999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-290459.7284</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-290391.6687</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-300391.6687</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-295791.6687</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 GNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-91219.80619999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-91236.0462</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-86375.48360000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-88755.48360000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-86355.48360000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-85301.49440000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-87401.49440000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-96377.66690000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-103905.6668</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-108602.7131</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-107679.1302</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-93413.96990000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-135801.0632</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-92352.02850000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-92352.02850000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-94332.10480000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-88523.48380000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-27784.68230000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-29175.65120000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-28185.65120000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-28185.65120000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-28201.98120000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-28201.98120000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-28218.21120000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-26851.37320000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-26875.03320000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-43745.12430000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-42171.82190000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-48839.45490000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-93758.15090000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-93758.15090000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-312321.4229</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-310159.7745</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-309422.7139</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-310633.09</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-309453.5333</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-309453.5333</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-308730.7008999999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-309301.7288999999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-326740.4962999999</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-320740.4962999999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-319882.9677</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-318371.9677</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-309724.6169</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-314408.7294</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-281712.1985999999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-285521.1984999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-274309.9533999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-267309.9533999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-290309.9533999999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-290459.7284</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-290391.6687</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-300391.6687</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-295791.6687</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-294061.6687</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
